--- a/medicine/Psychotrope/Jean_Placotomus/Jean_Placotomus.xlsx
+++ b/medicine/Psychotrope/Jean_Placotomus/Jean_Placotomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Placotomus, (nom humanistique de Hans Brettschneider) né vers (1514 à Münnerstadt et mort le 6 mai 1577) est un médecin, pédagogue et écrivain allemand de langue latine et allemande, actif à Königsberg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est surtout connu comme commentateur d'un livre de Eobanus Hessus De Tuenda bona valetudine, libellus Eobani Hessi, commentariis doctissimis a Ioanne Placotomo... illustratus. Francfort, Christian Egenolff, 1582, où il donne d'intéressantes données sur l'art de la feabrication de la bière. Cette édition contient les commentaires très développés de Jean Placotomus. Ils confèrent au poème d'Eobanus une grande valeur scientifique et médicale. La seconde moitié du livre contient deux traités très importants de Placotomus : sur la bière et sur l'hydromel ; celui de la bière est très complet.
 On y trouve l'historique de cette boisson, l'art du brasseur, des comparaisons entre bières brunes et blondes, l'analyse des saveurs, la fabrication et la conservation, des descriptions détaillées de diverses bières allemandes : de Prusse, Pologne, Lituanie, Poméranie, Marche, Hambourg, Lubeck, Brunswick, Rostock, Erfurt, etc. Il termine par les bières aromatisées à la sauge, à l'hysope, aux roses, à l'armoise, à l'origan, à la mélisse, au genièvre, aux cerises, à la prunelle... À la fin, on trouve trois dissertations proposées à ses élèves de Königsberg sur les causes de l'ébriété et sur ses remèdes.
@@ -543,7 +557,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Disputationes quaedam philosophicae in Academia Regiomontanae propositae. 1548
 De natura cerevisiarum et de mulso. Königsberg,1549
